--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>324.17660921451966</v>
+        <v>324.1766091650033</v>
       </c>
       <c r="C2">
-        <v>289.7487657785378</v>
+        <v>289.74876576961117</v>
       </c>
       <c r="D2">
-        <v>246.20365819896168</v>
+        <v>246.20365815098705</v>
       </c>
       <c r="E2">
-        <v>254.00306532443415</v>
+        <v>254.00306528497418</v>
       </c>
       <c r="F2">
-        <v>238.04756023559759</v>
+        <v>238.04756022803048</v>
       </c>
       <c r="G2">
-        <v>279.11966396944115</v>
+        <v>279.11966391022662</v>
       </c>
       <c r="H2">
-        <v>291.12872311108862</v>
+        <v>291.12872307921833</v>
       </c>
       <c r="I2">
-        <v>339.58837153070476</v>
+        <v>339.58837150605075</v>
       </c>
       <c r="J2">
-        <v>303.72864595719449</v>
+        <v>303.72864589822882</v>
       </c>
       <c r="K2">
-        <v>307.61631310699067</v>
+        <v>307.61631307172706</v>
       </c>
       <c r="L2">
-        <v>312.14263053542794</v>
+        <v>312.14263047544478</v>
       </c>
       <c r="M2">
-        <v>331.24111041454591</v>
+        <v>331.24111037346603</v>
       </c>
       <c r="N2">
-        <v>282.4806817824844</v>
+        <v>282.48068171035595</v>
       </c>
       <c r="O2">
-        <v>262.95206515849765</v>
+        <v>262.95206511980251</v>
       </c>
       <c r="P2">
-        <v>259.3930077671896</v>
+        <v>259.3930077243819</v>
       </c>
       <c r="Q2">
-        <v>343.0276423435339</v>
+        <v>343.02764230140053</v>
       </c>
       <c r="R2">
-        <v>289.18338214678408</v>
+        <v>289.18338212380695</v>
       </c>
       <c r="S2">
-        <v>328.79498488698869</v>
+        <v>328.79498483699683</v>
       </c>
       <c r="T2">
-        <v>326.27719786600903</v>
+        <v>326.27719782363476</v>
       </c>
       <c r="U2">
-        <v>264.73496363033757</v>
+        <v>264.73496360466601</v>
       </c>
       <c r="V2">
-        <v>325.10635373558875</v>
+        <v>325.1063536887637</v>
       </c>
       <c r="W2">
-        <v>273.05299003745756</v>
+        <v>273.05298998805108</v>
       </c>
       <c r="X2">
-        <v>277.41227839964222</v>
+        <v>277.4122783763429</v>
       </c>
       <c r="Y2">
-        <v>248.77694947105618</v>
+        <v>248.77694943691856</v>
       </c>
       <c r="Z2">
-        <v>275.05894641138997</v>
+        <v>275.05894639133066</v>
       </c>
       <c r="AA2">
-        <v>332.54772116313956</v>
+        <v>332.54772105007453</v>
       </c>
       <c r="AB2">
-        <v>301.56975291162269</v>
+        <v>301.56975288038529</v>
       </c>
       <c r="AC2">
-        <v>263.85611978973543</v>
+        <v>263.85611977050166</v>
       </c>
       <c r="AD2">
-        <v>279.80514870373247</v>
+        <v>279.80514866443423</v>
       </c>
       <c r="AE2">
-        <v>268.66641326728973</v>
+        <v>268.66641324098714</v>
       </c>
       <c r="AF2">
-        <v>288.50523801535815</v>
+        <v>288.50523798162044</v>
       </c>
       <c r="AG2">
-        <v>288.21191149678077</v>
+        <v>288.2119114660544</v>
       </c>
       <c r="AH2">
-        <v>342.25062329439595</v>
+        <v>342.25062325873648</v>
       </c>
       <c r="AI2">
-        <v>284.16859226784538</v>
+        <v>284.16859222519514</v>
       </c>
       <c r="AJ2">
-        <v>298.75085154167374</v>
+        <v>298.75085149666268</v>
       </c>
       <c r="AK2">
-        <v>315.67961529570334</v>
+        <v>315.67961523412487</v>
       </c>
       <c r="AL2">
-        <v>338.60483739158849</v>
+        <v>338.60483734001309</v>
       </c>
       <c r="AM2">
-        <v>282.36404111473541</v>
+        <v>282.36404105544182</v>
       </c>
       <c r="AN2">
-        <v>259.96376426152244</v>
+        <v>259.9637642171167</v>
       </c>
       <c r="AO2">
-        <v>272.45669085586263</v>
+        <v>272.4566908048925</v>
       </c>
       <c r="AP2">
-        <v>337.70853304633948</v>
+        <v>337.70853301034958</v>
       </c>
       <c r="AQ2">
-        <v>294.60394540421748</v>
+        <v>294.60394532936505</v>
       </c>
       <c r="AR2">
-        <v>333.87206647895312</v>
+        <v>333.87206646600191</v>
       </c>
       <c r="AS2">
-        <v>330.6571822011457</v>
+        <v>330.65718214032006</v>
       </c>
       <c r="AT2">
-        <v>263.38785448390007</v>
+        <v>263.38785444841903</v>
       </c>
       <c r="AU2">
-        <v>321.64721790980025</v>
+        <v>321.64721788300687</v>
       </c>
       <c r="AV2">
-        <v>278.960201107015</v>
+        <v>278.96020103034482</v>
       </c>
       <c r="AW2">
-        <v>279.97330306794572</v>
+        <v>279.97330301207154</v>
       </c>
       <c r="AX2">
-        <v>245.3075554530721</v>
+        <v>245.30755538629026</v>
       </c>
       <c r="AY2">
-        <v>269.4179691465647</v>
+        <v>269.41796910404383</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>327.48859646177686</v>
+        <v>327.48859642310902</v>
       </c>
       <c r="C3">
-        <v>307.74134321919939</v>
+        <v>307.74134320007727</v>
       </c>
       <c r="D3">
-        <v>262.41557488016133</v>
+        <v>262.41557485252349</v>
       </c>
       <c r="E3">
-        <v>255.67466324191429</v>
+        <v>255.67466322265872</v>
       </c>
       <c r="F3">
-        <v>254.48357456929065</v>
+        <v>254.4835745413674</v>
       </c>
       <c r="G3">
-        <v>280.11523646317892</v>
+        <v>280.11523644765617</v>
       </c>
       <c r="H3">
-        <v>284.24106225427602</v>
+        <v>284.2410622028271</v>
       </c>
       <c r="I3">
-        <v>343.66674039771067</v>
+        <v>343.6667403697536</v>
       </c>
       <c r="J3">
-        <v>306.8468318238331</v>
+        <v>306.84683179234133</v>
       </c>
       <c r="K3">
-        <v>291.52194246682882</v>
+        <v>291.52194243345218</v>
       </c>
       <c r="L3">
-        <v>320.77570589102811</v>
+        <v>320.77570585636204</v>
       </c>
       <c r="M3">
-        <v>323.2077903106491</v>
+        <v>323.2076911624697</v>
       </c>
       <c r="N3">
-        <v>307.0386270186392</v>
+        <v>307.03862696799189</v>
       </c>
       <c r="O3">
-        <v>259.56014537122189</v>
+        <v>259.5601453432763</v>
       </c>
       <c r="P3">
-        <v>294.12590784236914</v>
+        <v>294.12590780340122</v>
       </c>
       <c r="Q3">
-        <v>345.30674987111672</v>
+        <v>345.30674983652739</v>
       </c>
       <c r="R3">
-        <v>293.65608464630111</v>
+        <v>293.65608461176885</v>
       </c>
       <c r="S3">
-        <v>334.94320544605034</v>
+        <v>334.94320542394678</v>
       </c>
       <c r="T3">
-        <v>301.21145460828188</v>
+        <v>301.21145457560232</v>
       </c>
       <c r="U3">
-        <v>261.79141208369504</v>
+        <v>261.79141206701081</v>
       </c>
       <c r="V3">
-        <v>305.42054392338162</v>
+        <v>305.42054390402194</v>
       </c>
       <c r="W3">
-        <v>294.75148166625479</v>
+        <v>294.75148158953789</v>
       </c>
       <c r="X3">
-        <v>268.82747901246478</v>
+        <v>268.8274789621297</v>
       </c>
       <c r="Y3">
-        <v>251.54537598672383</v>
+        <v>251.54537595795279</v>
       </c>
       <c r="Z3">
-        <v>276.35958627065156</v>
+        <v>276.35958624669718</v>
       </c>
       <c r="AA3">
-        <v>341.73793759433579</v>
+        <v>341.73793754622557</v>
       </c>
       <c r="AB3">
-        <v>303.71396065873097</v>
+        <v>303.71396061115843</v>
       </c>
       <c r="AC3">
-        <v>269.7483547303915</v>
+        <v>269.74835467384742</v>
       </c>
       <c r="AD3">
-        <v>257.35790555858722</v>
+        <v>257.35790549105326</v>
       </c>
       <c r="AE3">
-        <v>265.79052462001323</v>
+        <v>265.79052462156994</v>
       </c>
       <c r="AF3">
-        <v>284.43279988175198</v>
+        <v>284.43279983021915</v>
       </c>
       <c r="AG3">
-        <v>292.09226263529774</v>
+        <v>292.09226257451132</v>
       </c>
       <c r="AH3">
-        <v>344.80965413082163</v>
+        <v>344.80965410194449</v>
       </c>
       <c r="AI3">
-        <v>316.40891790852936</v>
+        <v>316.4089178534042</v>
       </c>
       <c r="AJ3">
-        <v>302.33615091702461</v>
+        <v>302.33615085492181</v>
       </c>
       <c r="AK3">
-        <v>323.24632057182919</v>
+        <v>323.24632055094185</v>
       </c>
       <c r="AL3">
-        <v>333.1808451110461</v>
+        <v>333.18084506654577</v>
       </c>
       <c r="AM3">
-        <v>315.56734280926412</v>
+        <v>315.56734272789538</v>
       </c>
       <c r="AN3">
-        <v>259.22057772658729</v>
+        <v>259.22057767643787</v>
       </c>
       <c r="AO3">
-        <v>250.34496593668655</v>
+        <v>250.34496585580362</v>
       </c>
       <c r="AP3">
-        <v>345.59034302177849</v>
+        <v>345.59034296709035</v>
       </c>
       <c r="AQ3">
-        <v>300.67014781144451</v>
+        <v>300.67014776675808</v>
       </c>
       <c r="AR3">
-        <v>341.47650751835965</v>
+        <v>341.47650748323565</v>
       </c>
       <c r="AS3">
-        <v>310.92779338465664</v>
+        <v>310.92779334448335</v>
       </c>
       <c r="AT3">
-        <v>265.62663287279224</v>
+        <v>265.62663281209393</v>
       </c>
       <c r="AU3">
-        <v>307.99644272217517</v>
+        <v>307.99644265485233</v>
       </c>
       <c r="AV3">
-        <v>299.50434946243882</v>
+        <v>299.50434941923072</v>
       </c>
       <c r="AW3">
-        <v>280.23658626540384</v>
+        <v>280.23658619206992</v>
       </c>
       <c r="AX3">
-        <v>278.87127738956281</v>
+        <v>278.87127734143576</v>
       </c>
       <c r="AY3">
-        <v>275.80472360972249</v>
+        <v>275.80472357927397</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>324.1766091650033</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>289.74876576961117</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>246.20365815098705</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>254.00306528497418</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>238.04756022803048</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>279.11966391022662</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>291.12872307921833</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>339.58837150605075</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>303.72864589822882</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>307.61631307172706</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>312.14263047544478</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>331.24111037346603</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>282.48068171035595</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>262.95206511980251</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>259.3930077243819</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>343.02764230140053</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>289.18338212380695</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>328.79498483699683</v>
@@ -588,55 +477,55 @@
         <v>275.05894639133066</v>
       </c>
       <c r="AA2">
-        <v>332.54772105007453</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>301.56975288038529</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>263.85611977050166</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>279.80514866443423</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>268.66641324098714</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>288.50523798162044</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>288.2119114660544</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>342.25062325873648</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>284.16859222519514</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>298.75085149666268</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>315.67961523412487</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>338.60483734001309</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>282.36404105544182</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>259.9637642171167</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>272.4566908048925</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>337.70853301034958</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>294.60394532936505</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>333.87206646600191</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>327.48859642310902</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>307.74134320007727</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>262.41557485252349</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>255.67466322265872</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>254.4835745413674</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>280.11523644765617</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>284.2410622028271</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>343.6667403697536</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>306.84683179234133</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>291.52194243345218</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>320.77570585636204</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>323.2076911624697</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>307.03862696799189</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>259.5601453432763</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>294.12590780340122</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>345.30674983652739</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>293.65608461176885</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>334.94320542394678</v>
@@ -743,55 +629,55 @@
         <v>276.35958624669718</v>
       </c>
       <c r="AA3">
-        <v>341.73793754622557</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>303.71396061115843</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>269.74835467384742</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>257.35790549105326</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>265.79052462156994</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>284.43279983021915</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>292.09226257451132</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>344.80965410194449</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>316.4089178534042</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>302.33615085492181</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>323.24632055094185</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>333.18084506654577</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>315.56734272789538</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>259.22057767643787</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>250.34496585580362</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>345.59034296709035</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>300.67014776675808</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>341.47650748323565</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>324.17660921451966</v>
+        <v>262.95206511980251</v>
       </c>
       <c r="C2">
-        <v>289.7487657785378</v>
+        <v>289.18338212380695</v>
       </c>
       <c r="D2">
-        <v>246.20365819896168</v>
+        <v>259.9637642171167</v>
       </c>
       <c r="E2">
-        <v>254.00306532443415</v>
+        <v>294.60394532936505</v>
       </c>
       <c r="F2">
         <v>238.04756023559759</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>327.48859646177686</v>
+        <v>259.5601453432763</v>
       </c>
       <c r="C3">
-        <v>307.74134321919939</v>
+        <v>293.65608461176885</v>
       </c>
       <c r="D3">
-        <v>262.41557488016133</v>
+        <v>259.22057767643787</v>
       </c>
       <c r="E3">
-        <v>255.67466324191429</v>
+        <v>300.88329427136955</v>
       </c>
       <c r="F3">
         <v>254.48357456929065</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>324.17660921451966</v>
+        <v>282.48068171035595</v>
       </c>
       <c r="C2">
-        <v>289.7487657785378</v>
+        <v>262.95206511980251</v>
       </c>
       <c r="D2">
-        <v>246.20365819896168</v>
+        <v>282.36404105544182</v>
       </c>
       <c r="E2">
-        <v>254.00306532443415</v>
+        <v>259.9637642171167</v>
       </c>
       <c r="F2">
         <v>238.04756023559759</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>327.48859646177686</v>
+        <v>307.03862696799189</v>
       </c>
       <c r="C3">
-        <v>307.74134321919939</v>
+        <v>259.5601453432763</v>
       </c>
       <c r="D3">
-        <v>262.41557488016133</v>
+        <v>315.56734272789538</v>
       </c>
       <c r="E3">
-        <v>255.67466324191429</v>
+        <v>259.22057767643787</v>
       </c>
       <c r="F3">
         <v>254.48357456929065</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>324.1766091650033</v>
+      </c>
+      <c r="C2">
+        <v>289.74876576961117</v>
+      </c>
+      <c r="D2">
+        <v>246.20365815098705</v>
+      </c>
+      <c r="E2">
+        <v>254.00306528497418</v>
+      </c>
+      <c r="F2">
+        <v>238.04756022803048</v>
+      </c>
+      <c r="G2">
+        <v>279.11966391022662</v>
+      </c>
+      <c r="H2">
+        <v>291.12872307921833</v>
+      </c>
+      <c r="I2">
+        <v>339.58837150605075</v>
+      </c>
+      <c r="J2">
+        <v>303.72864589822882</v>
+      </c>
+      <c r="K2">
+        <v>307.61631307172706</v>
+      </c>
+      <c r="L2">
+        <v>312.14263047544478</v>
+      </c>
+      <c r="M2">
+        <v>331.24111037346603</v>
+      </c>
+      <c r="N2">
         <v>282.48068171035595</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>262.95206511980251</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>259.3930077243819</v>
+      </c>
+      <c r="Q2">
+        <v>343.02764230140053</v>
+      </c>
+      <c r="R2">
+        <v>289.18338212380695</v>
+      </c>
+      <c r="S2">
+        <v>328.79498483699683</v>
+      </c>
+      <c r="T2">
+        <v>326.27719782363476</v>
+      </c>
+      <c r="U2">
+        <v>264.73496360466601</v>
+      </c>
+      <c r="V2">
+        <v>325.1063536887637</v>
+      </c>
+      <c r="W2">
+        <v>273.05298998805108</v>
+      </c>
+      <c r="X2">
+        <v>277.4122783763429</v>
+      </c>
+      <c r="Y2">
+        <v>248.77694943691856</v>
+      </c>
+      <c r="Z2">
+        <v>275.05894639133066</v>
+      </c>
+      <c r="AA2">
+        <v>332.54772105007453</v>
+      </c>
+      <c r="AB2">
+        <v>301.56975288038529</v>
+      </c>
+      <c r="AC2">
+        <v>263.85611977050166</v>
+      </c>
+      <c r="AD2">
+        <v>279.80514866443423</v>
+      </c>
+      <c r="AE2">
+        <v>268.66641324098714</v>
+      </c>
+      <c r="AF2">
+        <v>288.50523798162044</v>
+      </c>
+      <c r="AG2">
+        <v>288.2119114660544</v>
+      </c>
+      <c r="AH2">
+        <v>342.25062325873648</v>
+      </c>
+      <c r="AI2">
+        <v>284.16859222519514</v>
+      </c>
+      <c r="AJ2">
+        <v>298.75085149666268</v>
+      </c>
+      <c r="AK2">
+        <v>315.67961523412487</v>
+      </c>
+      <c r="AL2">
+        <v>338.60483734001309</v>
+      </c>
+      <c r="AM2">
         <v>282.36404105544182</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>259.9637642171167</v>
       </c>
-      <c r="F2">
-        <v>238.04756023559759</v>
-      </c>
-      <c r="G2">
-        <v>279.11966396944115</v>
-      </c>
-      <c r="H2">
-        <v>291.12872311108862</v>
-      </c>
-      <c r="I2">
-        <v>339.58837153070476</v>
-      </c>
-      <c r="J2">
-        <v>303.72864595719449</v>
-      </c>
-      <c r="K2">
-        <v>307.61631310699067</v>
-      </c>
-      <c r="L2">
-        <v>312.14263053542794</v>
-      </c>
-      <c r="M2">
-        <v>331.24111041454591</v>
-      </c>
-      <c r="N2">
-        <v>282.4806817824844</v>
-      </c>
-      <c r="O2">
-        <v>262.95206515849765</v>
-      </c>
-      <c r="P2">
-        <v>259.3930077671896</v>
-      </c>
-      <c r="Q2">
-        <v>343.0276423435339</v>
-      </c>
-      <c r="R2">
-        <v>289.18338214678408</v>
-      </c>
-      <c r="S2">
-        <v>328.79498488698869</v>
-      </c>
-      <c r="T2">
-        <v>326.27719786600903</v>
-      </c>
-      <c r="U2">
-        <v>264.73496363033757</v>
-      </c>
-      <c r="V2">
-        <v>325.10635373558875</v>
-      </c>
-      <c r="W2">
-        <v>273.05299003745756</v>
-      </c>
-      <c r="X2">
-        <v>277.41227839964222</v>
-      </c>
-      <c r="Y2">
-        <v>248.77694947105618</v>
-      </c>
-      <c r="Z2">
-        <v>275.05894641138997</v>
-      </c>
-      <c r="AA2">
-        <v>332.54772116313956</v>
-      </c>
-      <c r="AB2">
-        <v>301.56975291162269</v>
-      </c>
-      <c r="AC2">
-        <v>263.85611978973543</v>
-      </c>
-      <c r="AD2">
-        <v>279.80514870373247</v>
-      </c>
-      <c r="AE2">
-        <v>268.66641326728973</v>
-      </c>
-      <c r="AF2">
-        <v>288.50523801535815</v>
-      </c>
-      <c r="AG2">
-        <v>288.21191149678077</v>
-      </c>
-      <c r="AH2">
-        <v>342.25062329439595</v>
-      </c>
-      <c r="AI2">
-        <v>284.16859226784538</v>
-      </c>
-      <c r="AJ2">
-        <v>298.75085154167374</v>
-      </c>
-      <c r="AK2">
-        <v>315.67961529570334</v>
-      </c>
-      <c r="AL2">
-        <v>338.60483739158849</v>
-      </c>
-      <c r="AM2">
-        <v>282.36404111473541</v>
-      </c>
-      <c r="AN2">
-        <v>259.96376426152244</v>
-      </c>
       <c r="AO2">
-        <v>272.45669085586263</v>
+        <v>272.4566908048925</v>
       </c>
       <c r="AP2">
-        <v>338.35953269032314</v>
+        <v>338.35953266158481</v>
       </c>
       <c r="AQ2">
-        <v>294.60394540421748</v>
+        <v>294.60394532936505</v>
       </c>
       <c r="AR2">
-        <v>333.87206647895312</v>
+        <v>333.87206646600191</v>
       </c>
       <c r="AS2">
-        <v>330.6571822011457</v>
+        <v>330.65718214032006</v>
       </c>
       <c r="AT2">
-        <v>263.38785448390007</v>
+        <v>263.38785444841903</v>
       </c>
       <c r="AU2">
-        <v>321.64721790980025</v>
+        <v>321.64721788300687</v>
       </c>
       <c r="AV2">
-        <v>278.960201107015</v>
+        <v>278.96020103034482</v>
       </c>
       <c r="AW2">
-        <v>279.97330306794572</v>
+        <v>279.97330301207154</v>
       </c>
       <c r="AX2">
-        <v>245.3075554530721</v>
+        <v>245.30755538629026</v>
       </c>
       <c r="AY2">
-        <v>269.4179691465647</v>
+        <v>269.41796910404383</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>327.48859642310902</v>
+      </c>
+      <c r="C3">
+        <v>307.74134320007727</v>
+      </c>
+      <c r="D3">
+        <v>262.41557485252349</v>
+      </c>
+      <c r="E3">
+        <v>255.67466322265872</v>
+      </c>
+      <c r="F3">
+        <v>254.4835745413674</v>
+      </c>
+      <c r="G3">
+        <v>280.11523644765617</v>
+      </c>
+      <c r="H3">
+        <v>284.2410622028271</v>
+      </c>
+      <c r="I3">
+        <v>343.6667403697536</v>
+      </c>
+      <c r="J3">
+        <v>306.84683179234133</v>
+      </c>
+      <c r="K3">
+        <v>291.52194243345218</v>
+      </c>
+      <c r="L3">
+        <v>320.77570585636204</v>
+      </c>
+      <c r="M3">
+        <v>323.2076911624697</v>
+      </c>
+      <c r="N3">
         <v>307.03862696799189</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>259.5601453432763</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>294.12590780340122</v>
+      </c>
+      <c r="Q3">
+        <v>345.30674983652739</v>
+      </c>
+      <c r="R3">
+        <v>293.65608461176885</v>
+      </c>
+      <c r="S3">
+        <v>334.94320542394678</v>
+      </c>
+      <c r="T3">
+        <v>301.21145457560232</v>
+      </c>
+      <c r="U3">
+        <v>261.79141206701081</v>
+      </c>
+      <c r="V3">
+        <v>305.42054390402194</v>
+      </c>
+      <c r="W3">
+        <v>294.38058745620719</v>
+      </c>
+      <c r="X3">
+        <v>268.8274789621297</v>
+      </c>
+      <c r="Y3">
+        <v>251.54537595795279</v>
+      </c>
+      <c r="Z3">
+        <v>276.35958624669718</v>
+      </c>
+      <c r="AA3">
+        <v>341.73793754622557</v>
+      </c>
+      <c r="AB3">
+        <v>303.71396061115843</v>
+      </c>
+      <c r="AC3">
+        <v>269.74835467384742</v>
+      </c>
+      <c r="AD3">
+        <v>257.35790549105326</v>
+      </c>
+      <c r="AE3">
+        <v>265.79052462156994</v>
+      </c>
+      <c r="AF3">
+        <v>284.43279983021915</v>
+      </c>
+      <c r="AG3">
+        <v>292.09226257451132</v>
+      </c>
+      <c r="AH3">
+        <v>344.12827334250096</v>
+      </c>
+      <c r="AI3">
+        <v>316.4089178534042</v>
+      </c>
+      <c r="AJ3">
+        <v>302.33615085492181</v>
+      </c>
+      <c r="AK3">
+        <v>323.24632055094185</v>
+      </c>
+      <c r="AL3">
+        <v>333.18084506654577</v>
+      </c>
+      <c r="AM3">
         <v>315.56734272789538</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>259.22057767643787</v>
       </c>
-      <c r="F3">
-        <v>254.48357456929065</v>
-      </c>
-      <c r="G3">
-        <v>280.11523646317892</v>
-      </c>
-      <c r="H3">
-        <v>284.24106225427602</v>
-      </c>
-      <c r="I3">
-        <v>343.66674039771067</v>
-      </c>
-      <c r="J3">
-        <v>306.8468318238331</v>
-      </c>
-      <c r="K3">
-        <v>291.52194246682882</v>
-      </c>
-      <c r="L3">
-        <v>320.77570589102811</v>
-      </c>
-      <c r="M3">
-        <v>323.2077903106491</v>
-      </c>
-      <c r="N3">
-        <v>307.0386270186392</v>
-      </c>
-      <c r="O3">
-        <v>259.56014537122189</v>
-      </c>
-      <c r="P3">
-        <v>294.12590784236914</v>
-      </c>
-      <c r="Q3">
-        <v>345.30674987111672</v>
-      </c>
-      <c r="R3">
-        <v>293.65608464630111</v>
-      </c>
-      <c r="S3">
-        <v>334.94320544605034</v>
-      </c>
-      <c r="T3">
-        <v>301.21145460828188</v>
-      </c>
-      <c r="U3">
-        <v>261.79141208369504</v>
-      </c>
-      <c r="V3">
-        <v>305.42054392338162</v>
-      </c>
-      <c r="W3">
-        <v>294.38058754796907</v>
-      </c>
-      <c r="X3">
-        <v>268.82747901246478</v>
-      </c>
-      <c r="Y3">
-        <v>251.54537598672383</v>
-      </c>
-      <c r="Z3">
-        <v>276.35958627065156</v>
-      </c>
-      <c r="AA3">
-        <v>341.73793759433579</v>
-      </c>
-      <c r="AB3">
-        <v>303.71396065873097</v>
-      </c>
-      <c r="AC3">
-        <v>269.7483547303915</v>
-      </c>
-      <c r="AD3">
-        <v>257.35790555858722</v>
-      </c>
-      <c r="AE3">
-        <v>265.79052462001323</v>
-      </c>
-      <c r="AF3">
-        <v>284.43279988175198</v>
-      </c>
-      <c r="AG3">
-        <v>292.09226263529774</v>
-      </c>
-      <c r="AH3">
-        <v>344.12827336874466</v>
-      </c>
-      <c r="AI3">
-        <v>316.40891790852936</v>
-      </c>
-      <c r="AJ3">
-        <v>302.33615091702461</v>
-      </c>
-      <c r="AK3">
-        <v>323.24632057182919</v>
-      </c>
-      <c r="AL3">
-        <v>333.1808451110461</v>
-      </c>
-      <c r="AM3">
-        <v>315.56734280926412</v>
-      </c>
-      <c r="AN3">
-        <v>259.22057772658729</v>
-      </c>
       <c r="AO3">
-        <v>250.34496593668655</v>
+        <v>250.34496585580362</v>
       </c>
       <c r="AP3">
-        <v>345.59034302177849</v>
+        <v>345.59034296709035</v>
       </c>
       <c r="AQ3">
-        <v>300.88329431234212</v>
+        <v>300.88329427136955</v>
       </c>
       <c r="AR3">
-        <v>341.47650751835965</v>
+        <v>341.47650748323565</v>
       </c>
       <c r="AS3">
-        <v>310.92779338465664</v>
+        <v>310.92779334448335</v>
       </c>
       <c r="AT3">
-        <v>265.62663287279224</v>
+        <v>265.62663281209393</v>
       </c>
       <c r="AU3">
-        <v>307.99644272217517</v>
+        <v>307.99644265485233</v>
       </c>
       <c r="AV3">
-        <v>299.50434946243882</v>
+        <v>299.50434941923072</v>
       </c>
       <c r="AW3">
-        <v>280.23658626540384</v>
+        <v>280.23658619206992</v>
       </c>
       <c r="AX3">
-        <v>278.87127738956281</v>
+        <v>278.87127734143576</v>
       </c>
       <c r="AY3">
-        <v>275.80472360972249</v>
+        <v>275.80472357927397</v>
       </c>
     </row>
   </sheetData>
